--- a/FinalPresentation/PPCBA Max.xlsx
+++ b/FinalPresentation/PPCBA Max.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TJorg\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tjorgensen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Recurring Costs" sheetId="5" r:id="rId5"/>
     <sheet name="Breakeven Chart" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="64">
   <si>
     <t>Team Awesome</t>
   </si>
@@ -127,15 +127,6 @@
     <t>Reduced amount of time to take inventory</t>
   </si>
   <si>
-    <t>Less likely to run out of product</t>
-  </si>
-  <si>
-    <t>More efficient ordering process</t>
-  </si>
-  <si>
-    <t>Currently, it's done on pen and paper, compared to a printable spreadsheet that has all relevant information on it. ($55/hour/developer * 1 developer * 25 hours)</t>
-  </si>
-  <si>
     <t xml:space="preserve">Year 0 </t>
   </si>
   <si>
@@ -160,9 +151,6 @@
     <t>Need purchase of Access to begin Developmental Process ($200)</t>
   </si>
   <si>
-    <t>Documenation Process to lay out process Developmental Process ($50/hour/developer * 1 * 50 hours)</t>
-  </si>
-  <si>
     <t>Economic Feasability Analysis</t>
   </si>
   <si>
@@ -175,15 +163,9 @@
     <t>Ongoing Documentation</t>
   </si>
   <si>
-    <t>Update Inventory with possible new product ($55/hour/developer * 1 * 50)</t>
-  </si>
-  <si>
     <t>Need to renew Access License to continue code and database maintenance ($200/year)</t>
   </si>
   <si>
-    <t>Update Ongoing Documentation for Client ($50/hour/developer * 1 * 75)</t>
-  </si>
-  <si>
     <t>Tangible Cost</t>
   </si>
   <si>
@@ -199,28 +181,49 @@
     <t>Breakeven Chart</t>
   </si>
   <si>
-    <t>NPV of Benefits</t>
-  </si>
-  <si>
-    <t>Time 0</t>
-  </si>
-  <si>
-    <t>NPV of Costs</t>
-  </si>
-  <si>
-    <t>More accurate need of supply with our system. ($55/hour/developer * 1 developer * 144 hours)</t>
-  </si>
-  <si>
-    <t>Development of Dashboard/Interface/Database ($50/hour/developer * 1 * 144 hours)</t>
-  </si>
-  <si>
-    <t>Currently, it takes two hours to take inventory, this system would reduce that to ~30 minutes. ($55/hour/developer * 1 developer *144 hours)</t>
-  </si>
-  <si>
     <t>Purchase of Hardware</t>
   </si>
   <si>
     <t>Purchase of Dell Computer that has capability of running windows ($629.99) and purchase of External hard drive for backup purposes ($54.99)</t>
+  </si>
+  <si>
+    <t>Documenation Process to lay out process Developmental Process ($20/hour/developer * 1 * 50 hours)</t>
+  </si>
+  <si>
+    <t>Development of Dashboard/Interface/Database ($20/hour/developer * 1 * 144 hours)</t>
+  </si>
+  <si>
+    <t>Better Invoice Tracking</t>
+  </si>
+  <si>
+    <t>Currently, it takes two hours to take inventory, this system would reduce that to ~30 minutes. (1 employee * $12/hr * 26 hours)</t>
+  </si>
+  <si>
+    <t>A certain amount of invoices are placed each week, or every two weeks. This would help keep track of what has been ordered, and what invoices have been completed (1 employee * $12/hr * 25 hours + 1 employee * $12/hr * 52 hours)</t>
+  </si>
+  <si>
+    <t>Better Inventory Tracking</t>
+  </si>
+  <si>
+    <t>One-Time Costs</t>
+  </si>
+  <si>
+    <t>Yearly Costs</t>
+  </si>
+  <si>
+    <t>Update Inventory with possible new product ($20/hour/developer * 1 * 5 hours)</t>
+  </si>
+  <si>
+    <t>Update Ongoing Documentation for Client ($20/hour/developer * 1 * 5 hours)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Yearly Benefits</t>
+  </si>
+  <si>
+    <t>(6 employees (4 barbacks &amp; 2 managers) * $12/hr * 40 hours).</t>
+  </si>
+  <si>
+    <t>Currently, pull-inventory reports are being calculated and generated on paper. Each manager will be able to generate pull-inventory reports with calculations already completed, and each of the 6 employees will be able to bring out inventory more quickly and accurately.</t>
   </si>
 </sst>
 </file>
@@ -411,31 +414,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Team Awesome Breakeven Chart</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -480,7 +458,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NPV of Benefits</c:v>
+                  <c:v>Yearly Costs</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -499,25 +477,25 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Breakeven Chart'!$B$40:$H$40</c:f>
+              <c:f>'Breakeven Chart'!$B$40:$G$40</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v> Year 0 </c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v> Time 0 </c:v>
+                  <c:v> Year 1 </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> Year 1 </c:v>
+                  <c:v> Year 2 </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> Year 2 </c:v>
+                  <c:v> Year 3 </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> Year 3 </c:v>
+                  <c:v> Year 4 </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v> Year 4 </c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v> Year 5 </c:v>
                 </c:pt>
               </c:strCache>
@@ -525,24 +503,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Breakeven Chart'!$B$41:$H$41</c:f>
+              <c:f>'Breakeven Chart'!$B$41:$G$41</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>6644.98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7044.98</c:v>
+                </c:pt>
                 <c:pt idx="2">
-                  <c:v>14500</c:v>
+                  <c:v>7444.98</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>27681.81818181818</c:v>
+                  <c:v>7844.98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>39665.289256198346</c:v>
+                  <c:v>8244.98</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50559.353869271217</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>60463.043819271217</c:v>
+                  <c:v>8644.98</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -550,7 +531,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-C269-4971-A86A-9E44D9344622}"/>
+              <c16:uniqueId val="{00000000-C706-4AE3-992E-B3FD312E1080}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -563,7 +544,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NPV of Costs</c:v>
+                  <c:v> Yearly Benefits</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -582,25 +563,25 @@
           </c:marker>
           <c:cat>
             <c:strRef>
-              <c:f>'Breakeven Chart'!$B$40:$H$40</c:f>
+              <c:f>'Breakeven Chart'!$B$40:$G$40</c:f>
               <c:strCache>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v> Year 0 </c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v> Time 0 </c:v>
+                  <c:v> Year 1 </c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v> Year 1 </c:v>
+                  <c:v> Year 2 </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v> Year 2 </c:v>
+                  <c:v> Year 3 </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v> Year 3 </c:v>
+                  <c:v> Year 4 </c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v> Year 4 </c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v> Year 5 </c:v>
                 </c:pt>
               </c:strCache>
@@ -608,27 +589,27 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Breakeven Chart'!$B$42:$H$42</c:f>
+              <c:f>'Breakeven Chart'!$B$42:$G$42</c:f>
               <c:numCache>
                 <c:formatCode>_("$"* #,##0.00_);_("$"* \(#,##0.00\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>15284.98</c:v>
+                  <c:v>4194</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>21375.889090909091</c:v>
+                  <c:v>8388</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26913.07917355372</c:v>
+                  <c:v>12582</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31946.88833959429</c:v>
+                  <c:v>16776</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>36523.078490540262</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>40683.251355036598</c:v>
+                  <c:v>20970</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -636,7 +617,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-C269-4971-A86A-9E44D9344622}"/>
+              <c16:uniqueId val="{00000001-C706-4AE3-992E-B3FD312E1080}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -649,71 +630,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="1722069552"/>
-        <c:axId val="1809329648"/>
+        <c:axId val="370016831"/>
+        <c:axId val="379621391"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1722069552"/>
+        <c:axId val="370016831"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -751,7 +677,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1809329648"/>
+        <c:crossAx val="379621391"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -759,7 +685,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1809329648"/>
+        <c:axId val="379621391"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -779,62 +705,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Dollars</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -865,7 +736,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1722069552"/>
+        <c:crossAx val="370016831"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1505,23 +1376,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>1809750</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>677741</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>24178</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>391991</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>100378</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85F47013-9B8E-4619-A263-4798B194CE6D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45103771-7F62-4FD5-B47A-D6B78A69A76C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1842,7 +1713,7 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G39" sqref="G39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1895,23 +1766,23 @@
       </c>
       <c r="G10" s="3">
         <f>'Tangible Benefits'!G13</f>
-        <v>15950</v>
+        <v>4194</v>
       </c>
       <c r="H10" s="3">
         <f>'Tangible Benefits'!H13</f>
-        <v>15950</v>
+        <v>4194</v>
       </c>
       <c r="I10" s="3">
         <f>'Tangible Benefits'!I13</f>
-        <v>15950</v>
+        <v>4194</v>
       </c>
       <c r="J10" s="3">
         <f>'Tangible Benefits'!J13</f>
-        <v>15950</v>
+        <v>4194</v>
       </c>
       <c r="K10" s="3">
         <f>'Tangible Benefits'!K13</f>
-        <v>15950</v>
+        <v>4194</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -1944,23 +1815,23 @@
       </c>
       <c r="G12" s="3">
         <f>G10*G11</f>
-        <v>14500</v>
+        <v>3812.7272727272725</v>
       </c>
       <c r="H12" s="3">
         <f>H10*H11</f>
-        <v>13181.81818181818</v>
+        <v>3466.1157024793383</v>
       </c>
       <c r="I12" s="3">
         <f>I10*I11</f>
-        <v>11983.471074380162</v>
+        <v>3151.0142749812162</v>
       </c>
       <c r="J12" s="3">
         <f>J10*J11</f>
-        <v>10894.064613072875</v>
+        <v>2864.5584318011056</v>
       </c>
       <c r="K12" s="3">
         <f>K10*K11</f>
-        <v>9903.68995</v>
+        <v>2604.1426739999997</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1969,27 +1840,27 @@
       </c>
       <c r="G14" s="4">
         <f>G12</f>
-        <v>14500</v>
+        <v>3812.7272727272725</v>
       </c>
       <c r="H14" s="4">
         <f>G12+H12</f>
-        <v>27681.81818181818</v>
+        <v>7278.8429752066113</v>
       </c>
       <c r="I14" s="4">
         <f>H14+I12</f>
-        <v>39665.289256198346</v>
+        <v>10429.857250187828</v>
       </c>
       <c r="J14" s="4">
         <f>I14+J12</f>
-        <v>50559.353869271217</v>
+        <v>13294.415681988934</v>
       </c>
       <c r="K14" s="4">
         <f>J14+K12</f>
-        <v>60463.043819271217</v>
+        <v>15898.558355988935</v>
       </c>
       <c r="M14" s="4">
         <f>K14</f>
-        <v>60463.043819271217</v>
+        <v>15898.558355988935</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1998,12 +1869,12 @@
       </c>
       <c r="F17" s="5">
         <f>'One Time Costs'!F14</f>
-        <v>-15284.98</v>
+        <v>-6644.98</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F19" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G19" t="s">
         <v>12</v>
@@ -2027,23 +1898,23 @@
       </c>
       <c r="G20" s="5">
         <f>'Recurring Costs'!G13</f>
-        <v>-6700</v>
+        <v>-400</v>
       </c>
       <c r="H20" s="5">
         <f>'Recurring Costs'!H13</f>
-        <v>-6700</v>
+        <v>-400</v>
       </c>
       <c r="I20" s="5">
         <f>'Recurring Costs'!I13</f>
-        <v>-6700</v>
+        <v>-400</v>
       </c>
       <c r="J20" s="5">
         <f>'Recurring Costs'!J13</f>
-        <v>-6700</v>
+        <v>-400</v>
       </c>
       <c r="K20" s="5">
         <f>'Recurring Costs'!K13</f>
-        <v>-6700</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
@@ -2077,23 +1948,23 @@
       </c>
       <c r="G22" s="5">
         <f>G20*G21</f>
-        <v>-6090.909090909091</v>
+        <v>-363.63636363636363</v>
       </c>
       <c r="H22" s="5">
         <f>H20*H21</f>
-        <v>-5537.1900826446272</v>
+        <v>-330.57851239669418</v>
       </c>
       <c r="I22" s="5">
         <f>I20*I21</f>
-        <v>-5033.8091660405698</v>
+        <v>-300.52592036063101</v>
       </c>
       <c r="J22" s="5">
         <f>J20*J21</f>
-        <v>-4576.1901509459722</v>
+        <v>-273.20538214602823</v>
       </c>
       <c r="K22" s="5">
         <f>K20*K21</f>
-        <v>-4160.1728644963378</v>
+        <v>-248.36852922366197</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
@@ -2102,27 +1973,27 @@
       </c>
       <c r="G24" s="5">
         <f>F17+G22</f>
-        <v>-21375.889090909091</v>
+        <v>-7008.6163636363635</v>
       </c>
       <c r="H24" s="5">
         <f>G24+H22</f>
-        <v>-26913.07917355372</v>
+        <v>-7339.1948760330579</v>
       </c>
       <c r="I24" s="5">
         <f>H24+I22</f>
-        <v>-31946.88833959429</v>
+        <v>-7639.7207963936889</v>
       </c>
       <c r="J24" s="5">
         <f>I24+J22</f>
-        <v>-36523.078490540262</v>
+        <v>-7912.9261785397175</v>
       </c>
       <c r="K24" s="5">
         <f>J24+K22</f>
-        <v>-40683.251355036598</v>
+        <v>-8161.2947077633798</v>
       </c>
       <c r="M24" s="5">
         <f>K24</f>
-        <v>-40683.251355036598</v>
+        <v>-8161.2947077633798</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -2131,7 +2002,7 @@
       </c>
       <c r="M26" s="4">
         <f>M14+M24</f>
-        <v>19779.792464234619</v>
+        <v>7737.2636482255548</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
@@ -2140,7 +2011,7 @@
       </c>
       <c r="M29" s="8">
         <f>ABS(M26/M24)</f>
-        <v>0.48619006115365149</v>
+        <v>0.948043653032837</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -2162,23 +2033,23 @@
       </c>
       <c r="G33" s="4">
         <f>G12+G22</f>
-        <v>8409.0909090909081</v>
+        <v>3449.090909090909</v>
       </c>
       <c r="H33" s="4">
         <f>H12+H22</f>
-        <v>7644.628099173553</v>
+        <v>3135.537190082644</v>
       </c>
       <c r="I33" s="4">
         <f>I12+I22</f>
-        <v>6949.6619083395926</v>
+        <v>2850.4883546205851</v>
       </c>
       <c r="J33" s="4">
         <f>J12+J22</f>
-        <v>6317.8744621269025</v>
+        <v>2591.3530496550775</v>
       </c>
       <c r="K33" s="4">
         <f>K12+K22</f>
-        <v>5743.5170855036622</v>
+        <v>2355.7741447763378</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
@@ -2190,23 +2061,23 @@
       </c>
       <c r="G34" s="4">
         <f>F34+G33</f>
-        <v>-1790.9090909090919</v>
+        <v>-6750.909090909091</v>
       </c>
       <c r="H34" s="4">
         <f>G34+H33</f>
-        <v>5853.7190082644611</v>
+        <v>-3615.371900826447</v>
       </c>
       <c r="I34" s="4">
         <f>H34+I33</f>
-        <v>12803.380916604054</v>
+        <v>-764.88354620586188</v>
       </c>
       <c r="J34" s="4">
         <f>I34+J33</f>
-        <v>19121.255378730955</v>
+        <v>1826.4695034492156</v>
       </c>
       <c r="K34" s="4">
         <f>J34+K33</f>
-        <v>24864.772464234618</v>
+        <v>4182.2436482255534</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -2252,7 +2123,7 @@
       <c r="F39" s="9"/>
       <c r="G39" s="10">
         <f>(H33-H34)/H33</f>
-        <v>0.23427027027027042</v>
+        <v>2.1530311017395891</v>
       </c>
       <c r="H39" s="9"/>
     </row>
@@ -2320,36 +2191,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="147.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="255.5703125" customWidth="1"/>
+    <col min="13" max="13" width="58.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -2375,113 +2248,116 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>30</v>
       </c>
       <c r="G10" s="2">
-        <f>55 * 1 * 144</f>
-        <v>7920</v>
+        <f>15 * 1 * 26</f>
+        <v>390</v>
       </c>
       <c r="H10" s="2">
-        <f t="shared" ref="H10:K10" si="0">55 * 1 * 144</f>
-        <v>7920</v>
+        <f t="shared" ref="H10:K10" si="0">15 * 1 * 26</f>
+        <v>390</v>
       </c>
       <c r="I10" s="2">
         <f t="shared" si="0"/>
-        <v>7920</v>
+        <v>390</v>
       </c>
       <c r="J10" s="2">
         <f t="shared" si="0"/>
-        <v>7920</v>
+        <v>390</v>
       </c>
       <c r="K10" s="2">
         <f t="shared" si="0"/>
-        <v>7920</v>
+        <v>390</v>
       </c>
       <c r="L10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="G11" s="2">
-        <f xml:space="preserve"> 55 * 1 * 144</f>
-        <v>7920</v>
+        <f xml:space="preserve"> 6 * 12 * 40</f>
+        <v>2880</v>
       </c>
       <c r="H11" s="2">
-        <f t="shared" ref="H11:K11" si="1" xml:space="preserve"> 55 * 1 * 144</f>
-        <v>7920</v>
+        <f t="shared" ref="H11:J11" si="1" xml:space="preserve"> 6 * 12 * 40</f>
+        <v>2880</v>
       </c>
       <c r="I11" s="2">
         <f t="shared" si="1"/>
-        <v>7920</v>
+        <v>2880</v>
       </c>
       <c r="J11" s="2">
         <f t="shared" si="1"/>
-        <v>7920</v>
+        <v>2880</v>
       </c>
       <c r="K11" s="2">
-        <f t="shared" si="1"/>
-        <v>7920</v>
+        <f xml:space="preserve"> 6 * 12 * 40</f>
+        <v>2880</v>
       </c>
       <c r="L11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="M11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="G12" s="2">
-        <f xml:space="preserve"> 55 * 1 * 2</f>
-        <v>110</v>
+        <f xml:space="preserve"> (1 * 12 * 25) + (1 * 12 * 52)</f>
+        <v>924</v>
       </c>
       <c r="H12" s="2">
-        <f t="shared" ref="H12:J12" si="2" xml:space="preserve"> 55 * 1 * 2</f>
-        <v>110</v>
+        <f t="shared" ref="H12:K12" si="2" xml:space="preserve"> (1 * 12 * 25) + (1 * 12 * 52)</f>
+        <v>924</v>
       </c>
       <c r="I12" s="2">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>924</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" si="2"/>
-        <v>110</v>
+        <v>924</v>
       </c>
       <c r="K12" s="2">
-        <f xml:space="preserve"> 55 * 1 * 2</f>
-        <v>110</v>
+        <f t="shared" si="2"/>
+        <v>924</v>
       </c>
       <c r="L12" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F13" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G13" s="2">
         <f xml:space="preserve"> SUM(G10:G12)</f>
-        <v>15950</v>
+        <v>4194</v>
       </c>
       <c r="H13" s="2">
         <f xml:space="preserve"> H10 + H11 + H12</f>
-        <v>15950</v>
+        <v>4194</v>
       </c>
       <c r="I13" s="2">
         <f xml:space="preserve"> I10 + I11 + I12</f>
-        <v>15950</v>
+        <v>4194</v>
       </c>
       <c r="J13" s="2">
         <f xml:space="preserve"> J10 + J11 + J12</f>
-        <v>15950</v>
+        <v>4194</v>
       </c>
       <c r="K13" s="2">
         <f xml:space="preserve"> K10 + K11 + K12</f>
-        <v>15950</v>
+        <v>4194</v>
       </c>
     </row>
   </sheetData>
@@ -2495,7 +2371,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2516,7 +2392,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -2541,11 +2417,11 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F10" s="6">
         <f>'One Time Costs'!F14</f>
-        <v>-15284.98</v>
+        <v>-6644.98</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -2555,60 +2431,60 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="6">
         <f>'Recurring Costs'!G13</f>
-        <v>-6700</v>
+        <v>-400</v>
       </c>
       <c r="H11" s="6">
         <f>'Recurring Costs'!H13</f>
-        <v>-6700</v>
+        <v>-400</v>
       </c>
       <c r="I11" s="6">
         <f>'Recurring Costs'!I13</f>
-        <v>-6700</v>
+        <v>-400</v>
       </c>
       <c r="J11" s="6">
         <f>'Recurring Costs'!J13</f>
-        <v>-6700</v>
+        <v>-400</v>
       </c>
       <c r="K11" s="6">
         <f>'Recurring Costs'!K13</f>
-        <v>-6700</v>
+        <v>-400</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F12" s="6">
         <f>F10</f>
-        <v>-15284.98</v>
+        <v>-6644.98</v>
       </c>
       <c r="G12" s="6">
         <f>G11</f>
-        <v>-6700</v>
+        <v>-400</v>
       </c>
       <c r="H12" s="6">
         <f>H11</f>
-        <v>-6700</v>
+        <v>-400</v>
       </c>
       <c r="I12" s="6">
         <f>I11</f>
-        <v>-6700</v>
+        <v>-400</v>
       </c>
       <c r="J12" s="6">
         <f>J11</f>
-        <v>-6700</v>
+        <v>-400</v>
       </c>
       <c r="K12" s="6">
         <f>K11</f>
-        <v>-6700</v>
+        <v>-400</v>
       </c>
     </row>
   </sheetData>
@@ -2627,7 +2503,7 @@
   <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2644,12 +2520,12 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
@@ -2677,7 +2553,7 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F10" s="3">
         <f>-200</f>
@@ -2704,76 +2580,76 @@
         <v>-200</v>
       </c>
       <c r="L10" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F11" s="3">
-        <f>- (50 * 1 * 144)</f>
-        <v>-7200</v>
+        <f>- (20 * 1 * 144)</f>
+        <v>-2880</v>
       </c>
       <c r="G11" s="3">
-        <f t="shared" ref="G11:K11" si="1">- (50 * 1 * 144)</f>
-        <v>-7200</v>
+        <f t="shared" ref="G11:K11" si="1">- (20 * 1 * 144)</f>
+        <v>-2880</v>
       </c>
       <c r="H11" s="3">
         <f t="shared" si="1"/>
-        <v>-7200</v>
+        <v>-2880</v>
       </c>
       <c r="I11" s="3">
         <f t="shared" si="1"/>
-        <v>-7200</v>
+        <v>-2880</v>
       </c>
       <c r="J11" s="3">
         <f t="shared" si="1"/>
-        <v>-7200</v>
+        <v>-2880</v>
       </c>
       <c r="K11" s="3">
         <f t="shared" si="1"/>
-        <v>-7200</v>
+        <v>-2880</v>
       </c>
       <c r="L11" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F12" s="3">
-        <f>- (50*1*144)</f>
-        <v>-7200</v>
+        <f>- (20*1*144)</f>
+        <v>-2880</v>
       </c>
       <c r="G12" s="3">
-        <f t="shared" ref="G12:K12" si="2">- (50*1*144)</f>
-        <v>-7200</v>
+        <f t="shared" ref="G12:K12" si="2">- (20*1*144)</f>
+        <v>-2880</v>
       </c>
       <c r="H12" s="3">
         <f t="shared" si="2"/>
-        <v>-7200</v>
+        <v>-2880</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="2"/>
-        <v>-7200</v>
+        <v>-2880</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="2"/>
-        <v>-7200</v>
+        <v>-2880</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="2"/>
-        <v>-7200</v>
+        <v>-2880</v>
       </c>
       <c r="L12" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F13" s="3">
         <v>-684.98</v>
@@ -2794,36 +2670,36 @@
         <v>-684.98</v>
       </c>
       <c r="L13" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F14" s="3">
         <f>F10+F11+F12+F13</f>
-        <v>-15284.98</v>
+        <v>-6644.98</v>
       </c>
       <c r="G14" s="3">
         <f>G10 + G11 + G12 + G13</f>
-        <v>-15284.98</v>
+        <v>-6644.98</v>
       </c>
       <c r="H14" s="3">
         <f>H10 + H11 + H12 + H13</f>
-        <v>-15284.98</v>
+        <v>-6644.98</v>
       </c>
       <c r="I14" s="3">
         <f>I10 + I11 + I12 +I13</f>
-        <v>-15284.98</v>
+        <v>-6644.98</v>
       </c>
       <c r="J14" s="3">
         <f>J10 + J11 + J12 + J13</f>
-        <v>-15284.98</v>
+        <v>-6644.98</v>
       </c>
       <c r="K14" s="3">
         <f>K10 + K11 + K12 + K13</f>
-        <v>-15284.98</v>
+        <v>-6644.98</v>
       </c>
     </row>
   </sheetData>
@@ -2845,7 +2721,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,7 +2737,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -2894,36 +2770,36 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="3">
-        <f>-(55*1*50)</f>
-        <v>-2750</v>
+        <f>-(20*1*5)</f>
+        <v>-100</v>
       </c>
       <c r="H10" s="3">
-        <f t="shared" ref="H10:K10" si="0">-(55*1*50)</f>
-        <v>-2750</v>
+        <f t="shared" ref="H10:K10" si="0">-(20*1*5)</f>
+        <v>-100</v>
       </c>
       <c r="I10" s="3">
         <f t="shared" si="0"/>
-        <v>-2750</v>
+        <v>-100</v>
       </c>
       <c r="J10" s="3">
         <f t="shared" si="0"/>
-        <v>-2750</v>
+        <v>-100</v>
       </c>
       <c r="K10" s="3">
         <f t="shared" si="0"/>
-        <v>-2750</v>
+        <v>-100</v>
       </c>
       <c r="L10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="3">
@@ -2947,62 +2823,62 @@
         <v>-200</v>
       </c>
       <c r="L11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F12" s="3"/>
       <c r="G12" s="3">
-        <f>-(50*1*75)</f>
-        <v>-3750</v>
+        <f>-(20*1*5)</f>
+        <v>-100</v>
       </c>
       <c r="H12" s="3">
-        <f t="shared" ref="H12:K12" si="2">-(50*1*75)</f>
-        <v>-3750</v>
+        <f t="shared" ref="H12:K12" si="2">-(20*1*5)</f>
+        <v>-100</v>
       </c>
       <c r="I12" s="3">
         <f t="shared" si="2"/>
-        <v>-3750</v>
+        <v>-100</v>
       </c>
       <c r="J12" s="3">
         <f t="shared" si="2"/>
-        <v>-3750</v>
+        <v>-100</v>
       </c>
       <c r="K12" s="3">
         <f t="shared" si="2"/>
-        <v>-3750</v>
+        <v>-100</v>
       </c>
       <c r="L12" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3">
         <f>G10+G11+G12</f>
-        <v>-6700</v>
+        <v>-400</v>
       </c>
       <c r="H13" s="3">
         <f t="shared" ref="H13:K13" si="3">H10+H11+H12</f>
-        <v>-6700</v>
+        <v>-400</v>
       </c>
       <c r="I13" s="3">
         <f t="shared" si="3"/>
-        <v>-6700</v>
+        <v>-400</v>
       </c>
       <c r="J13" s="3">
         <f t="shared" si="3"/>
-        <v>-6700</v>
+        <v>-400</v>
       </c>
       <c r="K13" s="3">
         <f t="shared" si="3"/>
-        <v>-6700</v>
+        <v>-400</v>
       </c>
     </row>
   </sheetData>
@@ -3022,13 +2898,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3044,84 +2921,90 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="C40" s="4" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40" s="4" t="s">
         <v>26</v>
       </c>
       <c r="I40" s="4"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" s="4"/>
+        <v>58</v>
+      </c>
+      <c r="B41" s="4">
+        <v>6644.98</v>
+      </c>
+      <c r="C41" s="4">
+        <f>B41+400</f>
+        <v>7044.98</v>
+      </c>
       <c r="D41" s="4">
-        <f>Summary!G14</f>
-        <v>14500</v>
+        <f>C41+400</f>
+        <v>7444.98</v>
       </c>
       <c r="E41" s="4">
-        <f>Summary!H14</f>
-        <v>27681.81818181818</v>
+        <f t="shared" ref="E41:G41" si="0">D41+400</f>
+        <v>7844.98</v>
       </c>
       <c r="F41" s="4">
-        <f>Summary!I14</f>
-        <v>39665.289256198346</v>
+        <f t="shared" si="0"/>
+        <v>8244.98</v>
       </c>
       <c r="G41" s="4">
-        <f>Summary!J14</f>
-        <v>50559.353869271217</v>
-      </c>
-      <c r="H41" s="4">
-        <f>Summary!K14</f>
-        <v>60463.043819271217</v>
+        <f t="shared" si="0"/>
+        <v>8644.98</v>
       </c>
       <c r="I41" s="4"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="B42" s="4">
+        <v>0</v>
       </c>
       <c r="C42" s="4">
-        <f>ABS(Summary!F17)</f>
-        <v>15284.98</v>
+        <f>'Tangible Benefits'!G13</f>
+        <v>4194</v>
       </c>
       <c r="D42" s="4">
-        <f>ABS(Summary!G24)</f>
-        <v>21375.889090909091</v>
+        <f>C42+4194</f>
+        <v>8388</v>
       </c>
       <c r="E42" s="4">
-        <f>ABS(Summary!H24)</f>
-        <v>26913.07917355372</v>
+        <f t="shared" ref="E42:G42" si="1">D42+4194</f>
+        <v>12582</v>
       </c>
       <c r="F42" s="4">
-        <f>ABS(Summary!I24)</f>
-        <v>31946.88833959429</v>
+        <f t="shared" si="1"/>
+        <v>16776</v>
       </c>
       <c r="G42" s="4">
-        <f>ABS(Summary!J24)</f>
-        <v>36523.078490540262</v>
-      </c>
-      <c r="H42" s="4">
-        <f>ABS(Summary!K24)</f>
-        <v>40683.251355036598</v>
+        <f t="shared" si="1"/>
+        <v>20970</v>
       </c>
       <c r="I42" s="4"/>
     </row>
